--- a/GroceryApplication/src/test/resources/TestData.xlsx
+++ b/GroceryApplication/src/test/resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/347187a1d18da885/Desktop/Java/GroceryApplication/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\GroceryApplication\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC104890F918537A5BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCAE76CE-0CC3-4CB3-A6BC-159786A5EE11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EE5F7-581F-4948-AEB7-6BAC65EB5DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -43,6 +44,15 @@
   </si>
   <si>
     <t>dinnya</t>
+  </si>
+  <si>
+    <t>guiop</t>
+  </si>
+  <si>
+    <t>ertyyy</t>
+  </si>
+  <si>
+    <t>jkil</t>
   </si>
 </sst>
 </file>
@@ -362,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +418,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99FE13F-CBA2-4545-AD30-1E09ED7CA23F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/GroceryApplication/src/test/resources/TestData.xlsx
+++ b/GroceryApplication/src/test/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\git\GroceryApplication\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EE5F7-581F-4948-AEB7-6BAC65EB5DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB06CCBA-0F3F-4B4B-8CCE-76077CB86CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -53,6 +54,15 @@
   </si>
   <si>
     <t>jkil</t>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>create news</t>
+  </si>
+  <si>
+    <t>create news update</t>
   </si>
 </sst>
 </file>
@@ -430,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99FE13F-CBA2-4545-AD30-1E09ED7CA23F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -460,4 +470,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406E5049-5BBC-4A5F-896E-D469C489E0D4}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>